--- a/FATP Exam System/obj/Release/Package/PackageTmp/excelModel/QuestionModel.xlsx
+++ b/FATP Exam System/obj/Release/Package/PackageTmp/excelModel/QuestionModel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1382919\source\repos\FATP Exam System\FATP Exam System\excelModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8DB8EC-EBC5-46AE-9E41-CA7853317FF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEB717C-3BE4-4456-9323-270BC6BB054E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -429,7 +429,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
